--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rfabc9356c82543c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R5c3e7ed6e4ba4325"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R5c3e7ed6e4ba4325"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R4a48e2e332ef43fc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R4a48e2e332ef43fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R53a5258ef05344e8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R53a5258ef05344e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R2d8d9617c9404096"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R2d8d9617c9404096"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R2ee1d95709a74934"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R2ee1d95709a74934"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R0601578f159941d1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R0601578f159941d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R72889d9cf5bf48c4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R72889d9cf5bf48c4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rcf30cb951b264feb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rcf30cb951b264feb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R6af3e1b1cdb8407d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R6af3e1b1cdb8407d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rfc4b2de2116a4dea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rfc4b2de2116a4dea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R3632bb97ca1b4cbc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R3632bb97ca1b4cbc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R1783161a329a4cde"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/038_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R1783161a329a4cde"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R099a8f133c45484c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
